--- a/norm factor.xlsx
+++ b/norm factor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>luminosity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>N_total</t>
+  </si>
+  <si>
+    <t>Norm. Factor</t>
+  </si>
+  <si>
+    <t>N_sel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_sel⁄F_norm </t>
+  </si>
+  <si>
+    <t>DYMuMu</t>
+  </si>
+  <si>
+    <t>DYTauTau</t>
+  </si>
+  <si>
+    <t>ttbar</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>WZ</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>2008.4×3</t>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diboson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data-BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DY-gamma*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,8 +132,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,20 +419,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>592.56299999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <f>4.53*10^11</f>
+        <v>453000000000</v>
+      </c>
+      <c r="D4">
+        <f>7.57*10^(-6)</f>
+        <v>7.5699999999999995E-6</v>
+      </c>
+      <c r="E4">
+        <f>4.58*10^10</f>
+        <v>45800000000</v>
+      </c>
+      <c r="F4">
+        <f>E4*D4</f>
+        <v>346706</v>
+      </c>
+      <c r="G4">
+        <f>F4/2</f>
+        <v>173353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <f>4.53*10^11</f>
+        <v>453000000000</v>
+      </c>
+      <c r="D5">
+        <f>7.57*10^(-6)</f>
+        <v>7.5699999999999995E-6</v>
+      </c>
+      <c r="E5">
+        <f>2.75*10^7</f>
+        <v>27500000</v>
+      </c>
+      <c r="F5">
+        <f>E5*D5</f>
+        <v>208.17499999999998</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G13" si="0">F5/2</f>
+        <v>104.08749999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>831.76</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19900300</v>
+      </c>
+      <c r="D6">
+        <f>2.38*10^(-2)</f>
+        <v>2.3799999999999998E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>83450</v>
+      </c>
+      <c r="F6">
+        <v>1985</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>992.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>118.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>994416</v>
+      </c>
+      <c r="D7">
+        <f>6.79*10^(-2)</f>
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3476</v>
+      </c>
+      <c r="F7">
+        <v>236</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C8" s="1">
+        <v>999248</v>
+      </c>
+      <c r="D8">
+        <f>3.76*10^(-2)</f>
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22984</v>
+      </c>
+      <c r="F8">
+        <v>865</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>432.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>15.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>996944</v>
+      </c>
+      <c r="D9">
+        <f>8.79*10^(-3)</f>
+        <v>8.7899999999999992E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44652</v>
+      </c>
+      <c r="F9">
+        <v>392</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10">
+        <f xml:space="preserve"> SUM(F7:F9)</f>
+        <v>1493</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G7:G9)</f>
+        <v>746.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <f xml:space="preserve"> SUM(F5:F9)</f>
+        <v>3686.1750000000002</v>
+      </c>
+      <c r="G11">
+        <f>F11/2</f>
+        <v>1843.0875000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F4:F9)</f>
+        <v>350392.17499999999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>175196.08749999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>350665</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>175332.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <f>F13-F11</f>
+        <v>346978.82500000001</v>
+      </c>
+      <c r="G15">
+        <f>G13-G11</f>
+        <v>173489.41250000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <f>F15*0.97</f>
+        <v>336569.46025</v>
       </c>
     </row>
   </sheetData>
